--- a/result.xlsx
+++ b/result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,144 +454,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stacking classifir</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>soft votingClassifier</t>
+          <t>stacking classifir</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hard votingClassifier</t>
+          <t>soft votingClassifier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0108</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gradient Boosting</t>
+          <t>hard votingClassifier</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0091</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Support Vector Machine</t>
+          <t>Gradient Boosting</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Support Vector Machine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0089</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>K Neighbors Classifier</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0091</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>K Neighbors Classifier</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gaussian Naive Bayes</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0146</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Linear Discriminant Analysis</t>
+          <t>Gaussian Naive Bayes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0126</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Linear Discriminant Analysis</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>0.7</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0073</v>
+      <c r="C13" t="n">
+        <v>0.0095</v>
       </c>
     </row>
   </sheetData>
